--- a/avalon-framework/avalon-office/avalon-office-excel/src/test/resources/test04.xlsx
+++ b/avalon-framework/avalon-office/avalon-office-excel/src/test/resources/test04.xlsx
@@ -139,11 +139,11 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>110.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -154,11 +154,11 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>120.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -169,11 +169,11 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>119.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
